--- a/doc/DBUseCase/Use Case Log in.xlsx
+++ b/doc/DBUseCase/Use Case Log in.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -442,7 +443,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A6" sqref="A6:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
